--- a/dist/serena/大类26小类3/大类26小类3每个区派车容积.xlsx
+++ b/dist/serena/大类26小类3/大类26小类3每个区派车容积.xlsx
@@ -975,7 +975,7 @@
         <v>0</v>
       </c>
       <c r="AG2">
-        <v>33.41</v>
+        <v>0</v>
       </c>
       <c r="AH2">
         <v>0</v>
@@ -1023,7 +1023,7 @@
         <v>0</v>
       </c>
       <c r="AW2">
-        <v>0</v>
+        <v>14.51</v>
       </c>
       <c r="AX2">
         <v>0</v>
@@ -1226,13 +1226,13 @@
         <v>0</v>
       </c>
       <c r="AG3">
-        <v>0</v>
+        <v>33.41</v>
       </c>
       <c r="AH3">
         <v>0</v>
       </c>
       <c r="AI3">
-        <v>14.51</v>
+        <v>0</v>
       </c>
       <c r="AJ3">
         <v>0</v>
@@ -1495,7 +1495,7 @@
         <v>0</v>
       </c>
       <c r="AM4">
-        <v>0</v>
+        <v>14.51</v>
       </c>
       <c r="AN4">
         <v>0</v>
@@ -1579,7 +1579,7 @@
         <v>0</v>
       </c>
       <c r="BO4">
-        <v>14.51</v>
+        <v>0</v>
       </c>
       <c r="BP4">
         <v>0</v>
@@ -1647,7 +1647,7 @@
         <v>0</v>
       </c>
       <c r="F5">
-        <v>0</v>
+        <v>41</v>
       </c>
       <c r="G5">
         <v>0</v>
@@ -1755,7 +1755,7 @@
         <v>0</v>
       </c>
       <c r="AP5">
-        <v>41</v>
+        <v>0</v>
       </c>
       <c r="AQ5">
         <v>0</v>
@@ -1824,7 +1824,7 @@
         <v>0</v>
       </c>
       <c r="BM5">
-        <v>0</v>
+        <v>1.880161264773078e-12</v>
       </c>
       <c r="BN5">
         <v>0</v>
@@ -1910,7 +1910,7 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>-1.511013536514876e-15</v>
+        <v>0</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -1970,7 +1970,7 @@
         <v>0</v>
       </c>
       <c r="AD6">
-        <v>13.61</v>
+        <v>0</v>
       </c>
       <c r="AE6">
         <v>0</v>
@@ -2006,7 +2006,7 @@
         <v>0</v>
       </c>
       <c r="AP6">
-        <v>0</v>
+        <v>1.873763049482163e-12</v>
       </c>
       <c r="AQ6">
         <v>0</v>
@@ -2075,7 +2075,7 @@
         <v>0</v>
       </c>
       <c r="BM6">
-        <v>0</v>
+        <v>41.14</v>
       </c>
       <c r="BN6">
         <v>0</v>
@@ -2272,7 +2272,7 @@
         <v>0</v>
       </c>
       <c r="AU7">
-        <v>41.14</v>
+        <v>0</v>
       </c>
       <c r="AV7">
         <v>0</v>
@@ -2290,7 +2290,7 @@
         <v>0</v>
       </c>
       <c r="BA7">
-        <v>0</v>
+        <v>13.61</v>
       </c>
       <c r="BB7">
         <v>0</v>
@@ -2403,10 +2403,10 @@
         <v>0</v>
       </c>
       <c r="G8">
-        <v>0</v>
+        <v>14.37</v>
       </c>
       <c r="H8">
-        <v>14.37</v>
+        <v>0</v>
       </c>
       <c r="I8">
         <v>0</v>
@@ -2762,94 +2762,94 @@
         <v>0</v>
       </c>
       <c r="AQ9">
+        <v>0</v>
+      </c>
+      <c r="AR9">
+        <v>0</v>
+      </c>
+      <c r="AS9">
+        <v>0</v>
+      </c>
+      <c r="AT9">
+        <v>0</v>
+      </c>
+      <c r="AU9">
+        <v>0</v>
+      </c>
+      <c r="AV9">
+        <v>0</v>
+      </c>
+      <c r="AW9">
+        <v>0</v>
+      </c>
+      <c r="AX9">
+        <v>0</v>
+      </c>
+      <c r="AY9">
+        <v>0</v>
+      </c>
+      <c r="AZ9">
+        <v>0</v>
+      </c>
+      <c r="BA9">
+        <v>0</v>
+      </c>
+      <c r="BB9">
+        <v>0</v>
+      </c>
+      <c r="BC9">
+        <v>0</v>
+      </c>
+      <c r="BD9">
+        <v>0</v>
+      </c>
+      <c r="BE9">
+        <v>0</v>
+      </c>
+      <c r="BF9">
+        <v>0</v>
+      </c>
+      <c r="BG9">
+        <v>0</v>
+      </c>
+      <c r="BH9">
+        <v>0</v>
+      </c>
+      <c r="BI9">
+        <v>0</v>
+      </c>
+      <c r="BJ9">
+        <v>0</v>
+      </c>
+      <c r="BK9">
+        <v>0</v>
+      </c>
+      <c r="BL9">
+        <v>0</v>
+      </c>
+      <c r="BM9">
+        <v>0</v>
+      </c>
+      <c r="BN9">
+        <v>0</v>
+      </c>
+      <c r="BO9">
+        <v>0</v>
+      </c>
+      <c r="BP9">
+        <v>0</v>
+      </c>
+      <c r="BQ9">
+        <v>0</v>
+      </c>
+      <c r="BR9">
+        <v>0</v>
+      </c>
+      <c r="BS9">
+        <v>0</v>
+      </c>
+      <c r="BT9">
         <v>13.61</v>
-      </c>
-      <c r="AR9">
-        <v>0</v>
-      </c>
-      <c r="AS9">
-        <v>0</v>
-      </c>
-      <c r="AT9">
-        <v>0</v>
-      </c>
-      <c r="AU9">
-        <v>0</v>
-      </c>
-      <c r="AV9">
-        <v>0</v>
-      </c>
-      <c r="AW9">
-        <v>0</v>
-      </c>
-      <c r="AX9">
-        <v>0</v>
-      </c>
-      <c r="AY9">
-        <v>0</v>
-      </c>
-      <c r="AZ9">
-        <v>0</v>
-      </c>
-      <c r="BA9">
-        <v>0</v>
-      </c>
-      <c r="BB9">
-        <v>0</v>
-      </c>
-      <c r="BC9">
-        <v>0</v>
-      </c>
-      <c r="BD9">
-        <v>0</v>
-      </c>
-      <c r="BE9">
-        <v>0</v>
-      </c>
-      <c r="BF9">
-        <v>0</v>
-      </c>
-      <c r="BG9">
-        <v>0</v>
-      </c>
-      <c r="BH9">
-        <v>0</v>
-      </c>
-      <c r="BI9">
-        <v>0</v>
-      </c>
-      <c r="BJ9">
-        <v>0</v>
-      </c>
-      <c r="BK9">
-        <v>0</v>
-      </c>
-      <c r="BL9">
-        <v>0</v>
-      </c>
-      <c r="BM9">
-        <v>0</v>
-      </c>
-      <c r="BN9">
-        <v>0</v>
-      </c>
-      <c r="BO9">
-        <v>0</v>
-      </c>
-      <c r="BP9">
-        <v>0</v>
-      </c>
-      <c r="BQ9">
-        <v>0</v>
-      </c>
-      <c r="BR9">
-        <v>0</v>
-      </c>
-      <c r="BS9">
-        <v>0</v>
-      </c>
-      <c r="BT9">
-        <v>0</v>
       </c>
       <c r="BU9">
         <v>0</v>
@@ -3004,7 +3004,7 @@
         <v>0</v>
       </c>
       <c r="AN10">
-        <v>0</v>
+        <v>39</v>
       </c>
       <c r="AO10">
         <v>0</v>
@@ -3040,7 +3040,7 @@
         <v>0</v>
       </c>
       <c r="AZ10">
-        <v>39</v>
+        <v>0</v>
       </c>
       <c r="BA10">
         <v>0</v>
@@ -3177,7 +3177,7 @@
         <v>0</v>
       </c>
       <c r="N11">
-        <v>-1.332267629550174e-15</v>
+        <v>0</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -3288,79 +3288,79 @@
         <v>0</v>
       </c>
       <c r="AY11">
+        <v>0</v>
+      </c>
+      <c r="AZ11">
+        <v>0</v>
+      </c>
+      <c r="BA11">
+        <v>0</v>
+      </c>
+      <c r="BB11">
+        <v>0</v>
+      </c>
+      <c r="BC11">
+        <v>0</v>
+      </c>
+      <c r="BD11">
+        <v>0</v>
+      </c>
+      <c r="BE11">
+        <v>0</v>
+      </c>
+      <c r="BF11">
+        <v>0</v>
+      </c>
+      <c r="BG11">
+        <v>0</v>
+      </c>
+      <c r="BH11">
+        <v>0</v>
+      </c>
+      <c r="BI11">
+        <v>0</v>
+      </c>
+      <c r="BJ11">
+        <v>0</v>
+      </c>
+      <c r="BK11">
+        <v>0</v>
+      </c>
+      <c r="BL11">
+        <v>0</v>
+      </c>
+      <c r="BM11">
+        <v>0</v>
+      </c>
+      <c r="BN11">
+        <v>0</v>
+      </c>
+      <c r="BO11">
+        <v>0</v>
+      </c>
+      <c r="BP11">
+        <v>0</v>
+      </c>
+      <c r="BQ11">
+        <v>0</v>
+      </c>
+      <c r="BR11">
+        <v>0</v>
+      </c>
+      <c r="BS11">
+        <v>0</v>
+      </c>
+      <c r="BT11">
+        <v>0</v>
+      </c>
+      <c r="BU11">
+        <v>0</v>
+      </c>
+      <c r="BV11">
+        <v>0</v>
+      </c>
+      <c r="BW11">
         <v>12</v>
-      </c>
-      <c r="AZ11">
-        <v>0</v>
-      </c>
-      <c r="BA11">
-        <v>0</v>
-      </c>
-      <c r="BB11">
-        <v>0</v>
-      </c>
-      <c r="BC11">
-        <v>0</v>
-      </c>
-      <c r="BD11">
-        <v>0</v>
-      </c>
-      <c r="BE11">
-        <v>0</v>
-      </c>
-      <c r="BF11">
-        <v>0</v>
-      </c>
-      <c r="BG11">
-        <v>0</v>
-      </c>
-      <c r="BH11">
-        <v>0</v>
-      </c>
-      <c r="BI11">
-        <v>0</v>
-      </c>
-      <c r="BJ11">
-        <v>0</v>
-      </c>
-      <c r="BK11">
-        <v>0</v>
-      </c>
-      <c r="BL11">
-        <v>0</v>
-      </c>
-      <c r="BM11">
-        <v>0</v>
-      </c>
-      <c r="BN11">
-        <v>0</v>
-      </c>
-      <c r="BO11">
-        <v>0</v>
-      </c>
-      <c r="BP11">
-        <v>0</v>
-      </c>
-      <c r="BQ11">
-        <v>0</v>
-      </c>
-      <c r="BR11">
-        <v>0</v>
-      </c>
-      <c r="BS11">
-        <v>0</v>
-      </c>
-      <c r="BT11">
-        <v>0</v>
-      </c>
-      <c r="BU11">
-        <v>0</v>
-      </c>
-      <c r="BV11">
-        <v>0</v>
-      </c>
-      <c r="BW11">
-        <v>0</v>
       </c>
       <c r="BX11">
         <v>0</v>
@@ -3428,7 +3428,7 @@
         <v>0</v>
       </c>
       <c r="N12">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -3518,7 +3518,7 @@
         <v>0</v>
       </c>
       <c r="AR12">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="AS12">
         <v>0</v>
@@ -3560,7 +3560,7 @@
         <v>0</v>
       </c>
       <c r="BF12">
-        <v>1.332267629550174e-15</v>
+        <v>0</v>
       </c>
       <c r="BG12">
         <v>0</v>
@@ -3569,7 +3569,7 @@
         <v>0</v>
       </c>
       <c r="BI12">
-        <v>-1.332267629550174e-15</v>
+        <v>0</v>
       </c>
       <c r="BJ12">
         <v>0</v>
@@ -3933,7 +3933,7 @@
         <v>0</v>
       </c>
       <c r="O14">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="P14">
         <v>0</v>
@@ -3996,7 +3996,7 @@
         <v>0</v>
       </c>
       <c r="AJ14">
-        <v>41.14</v>
+        <v>0</v>
       </c>
       <c r="AK14">
         <v>0</v>
@@ -4531,7 +4531,7 @@
         <v>0</v>
       </c>
       <c r="AU16">
-        <v>0</v>
+        <v>41.14</v>
       </c>
       <c r="AV16">
         <v>0</v>
@@ -4615,7 +4615,7 @@
         <v>0</v>
       </c>
       <c r="BW16">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="BX16">
         <v>0</v>
@@ -4710,136 +4710,136 @@
         <v>0</v>
       </c>
       <c r="W17">
+        <v>0</v>
+      </c>
+      <c r="X17">
+        <v>0</v>
+      </c>
+      <c r="Y17">
+        <v>0</v>
+      </c>
+      <c r="Z17">
+        <v>0</v>
+      </c>
+      <c r="AA17">
+        <v>0</v>
+      </c>
+      <c r="AB17">
+        <v>0</v>
+      </c>
+      <c r="AC17">
+        <v>0</v>
+      </c>
+      <c r="AD17">
+        <v>0</v>
+      </c>
+      <c r="AE17">
+        <v>0</v>
+      </c>
+      <c r="AF17">
+        <v>0</v>
+      </c>
+      <c r="AG17">
+        <v>0</v>
+      </c>
+      <c r="AH17">
+        <v>0</v>
+      </c>
+      <c r="AI17">
+        <v>0</v>
+      </c>
+      <c r="AJ17">
+        <v>0</v>
+      </c>
+      <c r="AK17">
+        <v>0</v>
+      </c>
+      <c r="AL17">
+        <v>0</v>
+      </c>
+      <c r="AM17">
+        <v>0</v>
+      </c>
+      <c r="AN17">
+        <v>0</v>
+      </c>
+      <c r="AO17">
+        <v>0</v>
+      </c>
+      <c r="AP17">
+        <v>0</v>
+      </c>
+      <c r="AQ17">
+        <v>0</v>
+      </c>
+      <c r="AR17">
+        <v>0</v>
+      </c>
+      <c r="AS17">
+        <v>0</v>
+      </c>
+      <c r="AT17">
+        <v>0</v>
+      </c>
+      <c r="AU17">
+        <v>0</v>
+      </c>
+      <c r="AV17">
+        <v>0</v>
+      </c>
+      <c r="AW17">
+        <v>0</v>
+      </c>
+      <c r="AX17">
+        <v>0</v>
+      </c>
+      <c r="AY17">
+        <v>0</v>
+      </c>
+      <c r="AZ17">
+        <v>0</v>
+      </c>
+      <c r="BA17">
+        <v>0</v>
+      </c>
+      <c r="BB17">
+        <v>0</v>
+      </c>
+      <c r="BC17">
+        <v>0</v>
+      </c>
+      <c r="BD17">
+        <v>0</v>
+      </c>
+      <c r="BE17">
+        <v>0</v>
+      </c>
+      <c r="BF17">
+        <v>0</v>
+      </c>
+      <c r="BG17">
+        <v>0</v>
+      </c>
+      <c r="BH17">
+        <v>0</v>
+      </c>
+      <c r="BI17">
+        <v>0</v>
+      </c>
+      <c r="BJ17">
+        <v>0</v>
+      </c>
+      <c r="BK17">
+        <v>0</v>
+      </c>
+      <c r="BL17">
+        <v>0</v>
+      </c>
+      <c r="BM17">
+        <v>0</v>
+      </c>
+      <c r="BN17">
         <v>12</v>
-      </c>
-      <c r="X17">
-        <v>0</v>
-      </c>
-      <c r="Y17">
-        <v>0</v>
-      </c>
-      <c r="Z17">
-        <v>0</v>
-      </c>
-      <c r="AA17">
-        <v>0</v>
-      </c>
-      <c r="AB17">
-        <v>0</v>
-      </c>
-      <c r="AC17">
-        <v>0</v>
-      </c>
-      <c r="AD17">
-        <v>0</v>
-      </c>
-      <c r="AE17">
-        <v>0</v>
-      </c>
-      <c r="AF17">
-        <v>0</v>
-      </c>
-      <c r="AG17">
-        <v>0</v>
-      </c>
-      <c r="AH17">
-        <v>0</v>
-      </c>
-      <c r="AI17">
-        <v>0</v>
-      </c>
-      <c r="AJ17">
-        <v>0</v>
-      </c>
-      <c r="AK17">
-        <v>0</v>
-      </c>
-      <c r="AL17">
-        <v>0</v>
-      </c>
-      <c r="AM17">
-        <v>0</v>
-      </c>
-      <c r="AN17">
-        <v>0</v>
-      </c>
-      <c r="AO17">
-        <v>0</v>
-      </c>
-      <c r="AP17">
-        <v>0</v>
-      </c>
-      <c r="AQ17">
-        <v>0</v>
-      </c>
-      <c r="AR17">
-        <v>0</v>
-      </c>
-      <c r="AS17">
-        <v>0</v>
-      </c>
-      <c r="AT17">
-        <v>0</v>
-      </c>
-      <c r="AU17">
-        <v>0</v>
-      </c>
-      <c r="AV17">
-        <v>0</v>
-      </c>
-      <c r="AW17">
-        <v>0</v>
-      </c>
-      <c r="AX17">
-        <v>0</v>
-      </c>
-      <c r="AY17">
-        <v>0</v>
-      </c>
-      <c r="AZ17">
-        <v>0</v>
-      </c>
-      <c r="BA17">
-        <v>0</v>
-      </c>
-      <c r="BB17">
-        <v>0</v>
-      </c>
-      <c r="BC17">
-        <v>0</v>
-      </c>
-      <c r="BD17">
-        <v>0</v>
-      </c>
-      <c r="BE17">
-        <v>0</v>
-      </c>
-      <c r="BF17">
-        <v>0</v>
-      </c>
-      <c r="BG17">
-        <v>0</v>
-      </c>
-      <c r="BH17">
-        <v>0</v>
-      </c>
-      <c r="BI17">
-        <v>0</v>
-      </c>
-      <c r="BJ17">
-        <v>0</v>
-      </c>
-      <c r="BK17">
-        <v>0</v>
-      </c>
-      <c r="BL17">
-        <v>0</v>
-      </c>
-      <c r="BM17">
-        <v>0</v>
-      </c>
-      <c r="BN17">
-        <v>0</v>
       </c>
       <c r="BO17">
         <v>0</v>
@@ -4925,130 +4925,130 @@
         <v>0</v>
       </c>
       <c r="K18">
+        <v>0</v>
+      </c>
+      <c r="L18">
+        <v>0</v>
+      </c>
+      <c r="M18">
+        <v>0</v>
+      </c>
+      <c r="N18">
+        <v>0</v>
+      </c>
+      <c r="O18">
+        <v>0</v>
+      </c>
+      <c r="P18">
+        <v>0</v>
+      </c>
+      <c r="Q18">
+        <v>0</v>
+      </c>
+      <c r="R18">
+        <v>0</v>
+      </c>
+      <c r="S18">
+        <v>0</v>
+      </c>
+      <c r="T18">
+        <v>0</v>
+      </c>
+      <c r="U18">
+        <v>0</v>
+      </c>
+      <c r="V18">
+        <v>0</v>
+      </c>
+      <c r="W18">
+        <v>0</v>
+      </c>
+      <c r="X18">
+        <v>0</v>
+      </c>
+      <c r="Y18">
+        <v>0</v>
+      </c>
+      <c r="Z18">
+        <v>0</v>
+      </c>
+      <c r="AA18">
+        <v>0</v>
+      </c>
+      <c r="AB18">
+        <v>0</v>
+      </c>
+      <c r="AC18">
+        <v>0</v>
+      </c>
+      <c r="AD18">
+        <v>0</v>
+      </c>
+      <c r="AE18">
+        <v>0</v>
+      </c>
+      <c r="AF18">
+        <v>0</v>
+      </c>
+      <c r="AG18">
+        <v>0</v>
+      </c>
+      <c r="AH18">
+        <v>0</v>
+      </c>
+      <c r="AI18">
+        <v>0</v>
+      </c>
+      <c r="AJ18">
+        <v>0</v>
+      </c>
+      <c r="AK18">
+        <v>0</v>
+      </c>
+      <c r="AL18">
+        <v>0</v>
+      </c>
+      <c r="AM18">
+        <v>0</v>
+      </c>
+      <c r="AN18">
+        <v>0</v>
+      </c>
+      <c r="AO18">
+        <v>0</v>
+      </c>
+      <c r="AP18">
+        <v>0</v>
+      </c>
+      <c r="AQ18">
+        <v>0</v>
+      </c>
+      <c r="AR18">
+        <v>0</v>
+      </c>
+      <c r="AS18">
+        <v>0</v>
+      </c>
+      <c r="AT18">
+        <v>0</v>
+      </c>
+      <c r="AU18">
+        <v>0</v>
+      </c>
+      <c r="AV18">
+        <v>0</v>
+      </c>
+      <c r="AW18">
+        <v>0</v>
+      </c>
+      <c r="AX18">
+        <v>0</v>
+      </c>
+      <c r="AY18">
+        <v>0</v>
+      </c>
+      <c r="AZ18">
         <v>39</v>
-      </c>
-      <c r="L18">
-        <v>0</v>
-      </c>
-      <c r="M18">
-        <v>0</v>
-      </c>
-      <c r="N18">
-        <v>0</v>
-      </c>
-      <c r="O18">
-        <v>0</v>
-      </c>
-      <c r="P18">
-        <v>0</v>
-      </c>
-      <c r="Q18">
-        <v>0</v>
-      </c>
-      <c r="R18">
-        <v>0</v>
-      </c>
-      <c r="S18">
-        <v>0</v>
-      </c>
-      <c r="T18">
-        <v>0</v>
-      </c>
-      <c r="U18">
-        <v>0</v>
-      </c>
-      <c r="V18">
-        <v>0</v>
-      </c>
-      <c r="W18">
-        <v>0</v>
-      </c>
-      <c r="X18">
-        <v>0</v>
-      </c>
-      <c r="Y18">
-        <v>0</v>
-      </c>
-      <c r="Z18">
-        <v>0</v>
-      </c>
-      <c r="AA18">
-        <v>0</v>
-      </c>
-      <c r="AB18">
-        <v>0</v>
-      </c>
-      <c r="AC18">
-        <v>0</v>
-      </c>
-      <c r="AD18">
-        <v>0</v>
-      </c>
-      <c r="AE18">
-        <v>0</v>
-      </c>
-      <c r="AF18">
-        <v>0</v>
-      </c>
-      <c r="AG18">
-        <v>0</v>
-      </c>
-      <c r="AH18">
-        <v>0</v>
-      </c>
-      <c r="AI18">
-        <v>0</v>
-      </c>
-      <c r="AJ18">
-        <v>0</v>
-      </c>
-      <c r="AK18">
-        <v>0</v>
-      </c>
-      <c r="AL18">
-        <v>0</v>
-      </c>
-      <c r="AM18">
-        <v>0</v>
-      </c>
-      <c r="AN18">
-        <v>0</v>
-      </c>
-      <c r="AO18">
-        <v>0</v>
-      </c>
-      <c r="AP18">
-        <v>0</v>
-      </c>
-      <c r="AQ18">
-        <v>0</v>
-      </c>
-      <c r="AR18">
-        <v>0</v>
-      </c>
-      <c r="AS18">
-        <v>0</v>
-      </c>
-      <c r="AT18">
-        <v>0</v>
-      </c>
-      <c r="AU18">
-        <v>0</v>
-      </c>
-      <c r="AV18">
-        <v>0</v>
-      </c>
-      <c r="AW18">
-        <v>0</v>
-      </c>
-      <c r="AX18">
-        <v>0</v>
-      </c>
-      <c r="AY18">
-        <v>0</v>
-      </c>
-      <c r="AZ18">
-        <v>0</v>
       </c>
       <c r="BA18">
         <v>0</v>
@@ -5164,10 +5164,10 @@
         <v>0</v>
       </c>
       <c r="G19">
+        <v>0</v>
+      </c>
+      <c r="H19">
         <v>14.37</v>
-      </c>
-      <c r="H19">
-        <v>0</v>
       </c>
       <c r="I19">
         <v>0</v>
@@ -5460,22 +5460,22 @@
         <v>0</v>
       </c>
       <c r="V20">
+        <v>0</v>
+      </c>
+      <c r="W20">
+        <v>0</v>
+      </c>
+      <c r="X20">
+        <v>0</v>
+      </c>
+      <c r="Y20">
+        <v>0</v>
+      </c>
+      <c r="Z20">
+        <v>0</v>
+      </c>
+      <c r="AA20">
         <v>12</v>
-      </c>
-      <c r="W20">
-        <v>0</v>
-      </c>
-      <c r="X20">
-        <v>0</v>
-      </c>
-      <c r="Y20">
-        <v>0</v>
-      </c>
-      <c r="Z20">
-        <v>0</v>
-      </c>
-      <c r="AA20">
-        <v>0</v>
       </c>
       <c r="AB20">
         <v>0</v>
@@ -5980,115 +5980,115 @@
         <v>0</v>
       </c>
       <c r="AB22">
+        <v>0</v>
+      </c>
+      <c r="AC22">
+        <v>0</v>
+      </c>
+      <c r="AD22">
+        <v>0</v>
+      </c>
+      <c r="AE22">
+        <v>0</v>
+      </c>
+      <c r="AF22">
+        <v>0</v>
+      </c>
+      <c r="AG22">
+        <v>0</v>
+      </c>
+      <c r="AH22">
+        <v>0</v>
+      </c>
+      <c r="AI22">
+        <v>0</v>
+      </c>
+      <c r="AJ22">
+        <v>0</v>
+      </c>
+      <c r="AK22">
+        <v>0</v>
+      </c>
+      <c r="AL22">
+        <v>0</v>
+      </c>
+      <c r="AM22">
+        <v>0</v>
+      </c>
+      <c r="AN22">
+        <v>0</v>
+      </c>
+      <c r="AO22">
+        <v>0</v>
+      </c>
+      <c r="AP22">
+        <v>0</v>
+      </c>
+      <c r="AQ22">
+        <v>0</v>
+      </c>
+      <c r="AR22">
+        <v>0</v>
+      </c>
+      <c r="AS22">
+        <v>0</v>
+      </c>
+      <c r="AT22">
+        <v>0</v>
+      </c>
+      <c r="AU22">
+        <v>0</v>
+      </c>
+      <c r="AV22">
+        <v>0</v>
+      </c>
+      <c r="AW22">
+        <v>0</v>
+      </c>
+      <c r="AX22">
+        <v>0</v>
+      </c>
+      <c r="AY22">
+        <v>0</v>
+      </c>
+      <c r="AZ22">
+        <v>0</v>
+      </c>
+      <c r="BA22">
+        <v>0</v>
+      </c>
+      <c r="BB22">
+        <v>0</v>
+      </c>
+      <c r="BC22">
+        <v>0</v>
+      </c>
+      <c r="BD22">
+        <v>0</v>
+      </c>
+      <c r="BE22">
+        <v>0</v>
+      </c>
+      <c r="BF22">
+        <v>0</v>
+      </c>
+      <c r="BG22">
+        <v>0</v>
+      </c>
+      <c r="BH22">
+        <v>0</v>
+      </c>
+      <c r="BI22">
+        <v>0</v>
+      </c>
+      <c r="BJ22">
+        <v>0</v>
+      </c>
+      <c r="BK22">
+        <v>0</v>
+      </c>
+      <c r="BL22">
         <v>38.88</v>
-      </c>
-      <c r="AC22">
-        <v>0</v>
-      </c>
-      <c r="AD22">
-        <v>0</v>
-      </c>
-      <c r="AE22">
-        <v>0</v>
-      </c>
-      <c r="AF22">
-        <v>0</v>
-      </c>
-      <c r="AG22">
-        <v>0</v>
-      </c>
-      <c r="AH22">
-        <v>0</v>
-      </c>
-      <c r="AI22">
-        <v>0</v>
-      </c>
-      <c r="AJ22">
-        <v>0</v>
-      </c>
-      <c r="AK22">
-        <v>0</v>
-      </c>
-      <c r="AL22">
-        <v>0</v>
-      </c>
-      <c r="AM22">
-        <v>0</v>
-      </c>
-      <c r="AN22">
-        <v>0</v>
-      </c>
-      <c r="AO22">
-        <v>0</v>
-      </c>
-      <c r="AP22">
-        <v>0</v>
-      </c>
-      <c r="AQ22">
-        <v>0</v>
-      </c>
-      <c r="AR22">
-        <v>0</v>
-      </c>
-      <c r="AS22">
-        <v>0</v>
-      </c>
-      <c r="AT22">
-        <v>0</v>
-      </c>
-      <c r="AU22">
-        <v>0</v>
-      </c>
-      <c r="AV22">
-        <v>0</v>
-      </c>
-      <c r="AW22">
-        <v>0</v>
-      </c>
-      <c r="AX22">
-        <v>0</v>
-      </c>
-      <c r="AY22">
-        <v>0</v>
-      </c>
-      <c r="AZ22">
-        <v>0</v>
-      </c>
-      <c r="BA22">
-        <v>0</v>
-      </c>
-      <c r="BB22">
-        <v>0</v>
-      </c>
-      <c r="BC22">
-        <v>0</v>
-      </c>
-      <c r="BD22">
-        <v>0</v>
-      </c>
-      <c r="BE22">
-        <v>0</v>
-      </c>
-      <c r="BF22">
-        <v>0</v>
-      </c>
-      <c r="BG22">
-        <v>0</v>
-      </c>
-      <c r="BH22">
-        <v>0</v>
-      </c>
-      <c r="BI22">
-        <v>0</v>
-      </c>
-      <c r="BJ22">
-        <v>0</v>
-      </c>
-      <c r="BK22">
-        <v>0</v>
-      </c>
-      <c r="BL22">
-        <v>0</v>
       </c>
       <c r="BM22">
         <v>0</v>
@@ -6413,7 +6413,7 @@
         <v>0</v>
       </c>
       <c r="E24">
-        <v>0</v>
+        <v>14.51</v>
       </c>
       <c r="F24">
         <v>0</v>
@@ -6503,7 +6503,7 @@
         <v>0</v>
       </c>
       <c r="AI24">
-        <v>0</v>
+        <v>14.51</v>
       </c>
       <c r="AJ24">
         <v>0</v>
@@ -6602,7 +6602,7 @@
         <v>0</v>
       </c>
       <c r="BP24">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="BQ24">
         <v>0</v>
@@ -6685,7 +6685,7 @@
         <v>0</v>
       </c>
       <c r="L25">
-        <v>14.37</v>
+        <v>0</v>
       </c>
       <c r="M25">
         <v>0</v>
@@ -6724,7 +6724,7 @@
         <v>0</v>
       </c>
       <c r="Y25">
-        <v>14.51</v>
+        <v>0</v>
       </c>
       <c r="Z25">
         <v>0</v>
@@ -6895,7 +6895,7 @@
         <v>0</v>
       </c>
       <c r="CD25">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="CE25">
         <v>0</v>
@@ -7074,7 +7074,7 @@
         <v>0</v>
       </c>
       <c r="BF26">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="BG26">
         <v>0</v>
@@ -7137,10 +7137,10 @@
         <v>0</v>
       </c>
       <c r="CA26">
-        <v>0.08895714285713639</v>
+        <v>0</v>
       </c>
       <c r="CB26">
-        <v>14.28104285714286</v>
+        <v>0</v>
       </c>
       <c r="CC26">
         <v>0</v>
@@ -7166,7 +7166,7 @@
         <v>0</v>
       </c>
       <c r="E27">
-        <v>14.4201761904762</v>
+        <v>0</v>
       </c>
       <c r="F27">
         <v>0</v>
@@ -7187,7 +7187,7 @@
         <v>0</v>
       </c>
       <c r="L27">
-        <v>0</v>
+        <v>14.37</v>
       </c>
       <c r="M27">
         <v>0</v>
@@ -7268,7 +7268,7 @@
         <v>0</v>
       </c>
       <c r="AM27">
-        <v>0.08982380952380299</v>
+        <v>0</v>
       </c>
       <c r="AN27">
         <v>0</v>
@@ -7555,7 +7555,7 @@
         <v>0</v>
       </c>
       <c r="AY28">
-        <v>-1.332267629550174e-15</v>
+        <v>0</v>
       </c>
       <c r="AZ28">
         <v>0</v>
@@ -7585,7 +7585,7 @@
         <v>0</v>
       </c>
       <c r="BI28">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="BJ28">
         <v>0</v>
@@ -7603,7 +7603,7 @@
         <v>0</v>
       </c>
       <c r="BO28">
-        <v>0</v>
+        <v>14.51</v>
       </c>
       <c r="BP28">
         <v>0</v>
@@ -8084,7 +8084,7 @@
         <v>0</v>
       </c>
       <c r="BH30">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="BI30">
         <v>0</v>
@@ -8093,7 +8093,7 @@
         <v>0</v>
       </c>
       <c r="BK30">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="BL30">
         <v>0</v>
@@ -8206,7 +8206,7 @@
         <v>0</v>
       </c>
       <c r="Q31">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="R31">
         <v>0</v>
@@ -8215,7 +8215,7 @@
         <v>0</v>
       </c>
       <c r="T31">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="U31">
         <v>0</v>
@@ -8448,178 +8448,178 @@
         <v>0</v>
       </c>
       <c r="N32">
+        <v>0</v>
+      </c>
+      <c r="O32">
+        <v>0</v>
+      </c>
+      <c r="P32">
+        <v>0</v>
+      </c>
+      <c r="Q32">
+        <v>0</v>
+      </c>
+      <c r="R32">
+        <v>0</v>
+      </c>
+      <c r="S32">
+        <v>0</v>
+      </c>
+      <c r="T32">
+        <v>0</v>
+      </c>
+      <c r="U32">
+        <v>0</v>
+      </c>
+      <c r="V32">
+        <v>0</v>
+      </c>
+      <c r="W32">
+        <v>0</v>
+      </c>
+      <c r="X32">
+        <v>0</v>
+      </c>
+      <c r="Y32">
+        <v>0</v>
+      </c>
+      <c r="Z32">
+        <v>0</v>
+      </c>
+      <c r="AA32">
+        <v>0</v>
+      </c>
+      <c r="AB32">
+        <v>0</v>
+      </c>
+      <c r="AC32">
+        <v>0</v>
+      </c>
+      <c r="AD32">
+        <v>0</v>
+      </c>
+      <c r="AE32">
+        <v>0</v>
+      </c>
+      <c r="AF32">
+        <v>0</v>
+      </c>
+      <c r="AG32">
+        <v>0</v>
+      </c>
+      <c r="AH32">
+        <v>0</v>
+      </c>
+      <c r="AI32">
+        <v>0</v>
+      </c>
+      <c r="AJ32">
+        <v>0</v>
+      </c>
+      <c r="AK32">
+        <v>0</v>
+      </c>
+      <c r="AL32">
+        <v>0</v>
+      </c>
+      <c r="AM32">
+        <v>0</v>
+      </c>
+      <c r="AN32">
+        <v>0</v>
+      </c>
+      <c r="AO32">
+        <v>0</v>
+      </c>
+      <c r="AP32">
+        <v>0</v>
+      </c>
+      <c r="AQ32">
+        <v>0</v>
+      </c>
+      <c r="AR32">
+        <v>0</v>
+      </c>
+      <c r="AS32">
+        <v>0</v>
+      </c>
+      <c r="AT32">
+        <v>0</v>
+      </c>
+      <c r="AU32">
+        <v>0</v>
+      </c>
+      <c r="AV32">
+        <v>0</v>
+      </c>
+      <c r="AW32">
+        <v>0</v>
+      </c>
+      <c r="AX32">
+        <v>0</v>
+      </c>
+      <c r="AY32">
+        <v>9.992007221626598e-16</v>
+      </c>
+      <c r="AZ32">
+        <v>0</v>
+      </c>
+      <c r="BA32">
+        <v>0</v>
+      </c>
+      <c r="BB32">
+        <v>0</v>
+      </c>
+      <c r="BC32">
+        <v>0</v>
+      </c>
+      <c r="BD32">
+        <v>0</v>
+      </c>
+      <c r="BE32">
+        <v>0</v>
+      </c>
+      <c r="BF32">
+        <v>0</v>
+      </c>
+      <c r="BG32">
+        <v>0</v>
+      </c>
+      <c r="BH32">
+        <v>0</v>
+      </c>
+      <c r="BI32">
+        <v>0</v>
+      </c>
+      <c r="BJ32">
+        <v>0</v>
+      </c>
+      <c r="BK32">
+        <v>0</v>
+      </c>
+      <c r="BL32">
+        <v>0</v>
+      </c>
+      <c r="BM32">
+        <v>0</v>
+      </c>
+      <c r="BN32">
+        <v>0</v>
+      </c>
+      <c r="BO32">
+        <v>0</v>
+      </c>
+      <c r="BP32">
+        <v>0</v>
+      </c>
+      <c r="BQ32">
+        <v>0</v>
+      </c>
+      <c r="BR32">
+        <v>0</v>
+      </c>
+      <c r="BS32">
         <v>12</v>
-      </c>
-      <c r="O32">
-        <v>0</v>
-      </c>
-      <c r="P32">
-        <v>0</v>
-      </c>
-      <c r="Q32">
-        <v>0</v>
-      </c>
-      <c r="R32">
-        <v>0</v>
-      </c>
-      <c r="S32">
-        <v>0</v>
-      </c>
-      <c r="T32">
-        <v>0</v>
-      </c>
-      <c r="U32">
-        <v>0</v>
-      </c>
-      <c r="V32">
-        <v>0</v>
-      </c>
-      <c r="W32">
-        <v>0</v>
-      </c>
-      <c r="X32">
-        <v>0</v>
-      </c>
-      <c r="Y32">
-        <v>0</v>
-      </c>
-      <c r="Z32">
-        <v>0</v>
-      </c>
-      <c r="AA32">
-        <v>0</v>
-      </c>
-      <c r="AB32">
-        <v>0</v>
-      </c>
-      <c r="AC32">
-        <v>0</v>
-      </c>
-      <c r="AD32">
-        <v>-1.511013536514822e-15</v>
-      </c>
-      <c r="AE32">
-        <v>0</v>
-      </c>
-      <c r="AF32">
-        <v>0</v>
-      </c>
-      <c r="AG32">
-        <v>0</v>
-      </c>
-      <c r="AH32">
-        <v>0</v>
-      </c>
-      <c r="AI32">
-        <v>0</v>
-      </c>
-      <c r="AJ32">
-        <v>0</v>
-      </c>
-      <c r="AK32">
-        <v>0</v>
-      </c>
-      <c r="AL32">
-        <v>0</v>
-      </c>
-      <c r="AM32">
-        <v>0</v>
-      </c>
-      <c r="AN32">
-        <v>0</v>
-      </c>
-      <c r="AO32">
-        <v>0</v>
-      </c>
-      <c r="AP32">
-        <v>0</v>
-      </c>
-      <c r="AQ32">
-        <v>0</v>
-      </c>
-      <c r="AR32">
-        <v>0</v>
-      </c>
-      <c r="AS32">
-        <v>0</v>
-      </c>
-      <c r="AT32">
-        <v>0</v>
-      </c>
-      <c r="AU32">
-        <v>0</v>
-      </c>
-      <c r="AV32">
-        <v>0</v>
-      </c>
-      <c r="AW32">
-        <v>0</v>
-      </c>
-      <c r="AX32">
-        <v>0</v>
-      </c>
-      <c r="AY32">
-        <v>0</v>
-      </c>
-      <c r="AZ32">
-        <v>0</v>
-      </c>
-      <c r="BA32">
-        <v>0</v>
-      </c>
-      <c r="BB32">
-        <v>0</v>
-      </c>
-      <c r="BC32">
-        <v>0</v>
-      </c>
-      <c r="BD32">
-        <v>0</v>
-      </c>
-      <c r="BE32">
-        <v>0</v>
-      </c>
-      <c r="BF32">
-        <v>0</v>
-      </c>
-      <c r="BG32">
-        <v>0</v>
-      </c>
-      <c r="BH32">
-        <v>0</v>
-      </c>
-      <c r="BI32">
-        <v>0</v>
-      </c>
-      <c r="BJ32">
-        <v>0</v>
-      </c>
-      <c r="BK32">
-        <v>0</v>
-      </c>
-      <c r="BL32">
-        <v>0</v>
-      </c>
-      <c r="BM32">
-        <v>0</v>
-      </c>
-      <c r="BN32">
-        <v>0</v>
-      </c>
-      <c r="BO32">
-        <v>0</v>
-      </c>
-      <c r="BP32">
-        <v>0</v>
-      </c>
-      <c r="BQ32">
-        <v>0</v>
-      </c>
-      <c r="BR32">
-        <v>0</v>
-      </c>
-      <c r="BS32">
-        <v>0</v>
       </c>
       <c r="BT32">
         <v>0</v>
@@ -8920,7 +8920,7 @@
         <v>0</v>
       </c>
       <c r="D34">
-        <v>1.544690301595124e-15</v>
+        <v>0</v>
       </c>
       <c r="E34">
         <v>0</v>
@@ -9076,67 +9076,67 @@
         <v>0</v>
       </c>
       <c r="BD34">
+        <v>0</v>
+      </c>
+      <c r="BE34">
+        <v>0</v>
+      </c>
+      <c r="BF34">
+        <v>0</v>
+      </c>
+      <c r="BG34">
+        <v>0</v>
+      </c>
+      <c r="BH34">
+        <v>0</v>
+      </c>
+      <c r="BI34">
+        <v>0</v>
+      </c>
+      <c r="BJ34">
+        <v>0</v>
+      </c>
+      <c r="BK34">
+        <v>0</v>
+      </c>
+      <c r="BL34">
+        <v>0</v>
+      </c>
+      <c r="BM34">
+        <v>0</v>
+      </c>
+      <c r="BN34">
+        <v>0</v>
+      </c>
+      <c r="BO34">
+        <v>0</v>
+      </c>
+      <c r="BP34">
+        <v>0</v>
+      </c>
+      <c r="BQ34">
+        <v>0</v>
+      </c>
+      <c r="BR34">
+        <v>0</v>
+      </c>
+      <c r="BS34">
+        <v>0</v>
+      </c>
+      <c r="BT34">
+        <v>0</v>
+      </c>
+      <c r="BU34">
+        <v>0</v>
+      </c>
+      <c r="BV34">
+        <v>0</v>
+      </c>
+      <c r="BW34">
+        <v>0</v>
+      </c>
+      <c r="BX34">
         <v>14</v>
-      </c>
-      <c r="BE34">
-        <v>0</v>
-      </c>
-      <c r="BF34">
-        <v>0</v>
-      </c>
-      <c r="BG34">
-        <v>0</v>
-      </c>
-      <c r="BH34">
-        <v>0</v>
-      </c>
-      <c r="BI34">
-        <v>0</v>
-      </c>
-      <c r="BJ34">
-        <v>0</v>
-      </c>
-      <c r="BK34">
-        <v>0</v>
-      </c>
-      <c r="BL34">
-        <v>0</v>
-      </c>
-      <c r="BM34">
-        <v>0</v>
-      </c>
-      <c r="BN34">
-        <v>0</v>
-      </c>
-      <c r="BO34">
-        <v>0</v>
-      </c>
-      <c r="BP34">
-        <v>0</v>
-      </c>
-      <c r="BQ34">
-        <v>0</v>
-      </c>
-      <c r="BR34">
-        <v>0</v>
-      </c>
-      <c r="BS34">
-        <v>0</v>
-      </c>
-      <c r="BT34">
-        <v>0</v>
-      </c>
-      <c r="BU34">
-        <v>0</v>
-      </c>
-      <c r="BV34">
-        <v>0</v>
-      </c>
-      <c r="BW34">
-        <v>0</v>
-      </c>
-      <c r="BX34">
-        <v>-1.544690301595124e-15</v>
       </c>
       <c r="BY34">
         <v>0</v>
@@ -9234,7 +9234,7 @@
         <v>0</v>
       </c>
       <c r="Y35">
-        <v>0</v>
+        <v>14.51</v>
       </c>
       <c r="Z35">
         <v>0</v>
@@ -9270,7 +9270,7 @@
         <v>0</v>
       </c>
       <c r="AK35">
-        <v>0</v>
+        <v>4.75726172029382e-16</v>
       </c>
       <c r="AL35">
         <v>0</v>
@@ -9312,7 +9312,7 @@
         <v>0</v>
       </c>
       <c r="AY35">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="AZ35">
         <v>0</v>
@@ -9369,7 +9369,7 @@
         <v>0</v>
       </c>
       <c r="BR35">
-        <v>13.61</v>
+        <v>0</v>
       </c>
       <c r="BS35">
         <v>0</v>
@@ -9521,7 +9521,7 @@
         <v>0</v>
       </c>
       <c r="AK36">
-        <v>6.008901426488176e-31</v>
+        <v>0</v>
       </c>
       <c r="AL36">
         <v>0</v>
@@ -9545,7 +9545,7 @@
         <v>0</v>
       </c>
       <c r="AS36">
-        <v>14.51</v>
+        <v>0</v>
       </c>
       <c r="AT36">
         <v>0</v>
@@ -9587,7 +9587,7 @@
         <v>0</v>
       </c>
       <c r="BG36">
-        <v>0</v>
+        <v>13.61</v>
       </c>
       <c r="BH36">
         <v>0</v>
@@ -9623,7 +9623,7 @@
         <v>0</v>
       </c>
       <c r="BS36">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="BT36">
         <v>0</v>
@@ -9638,7 +9638,7 @@
         <v>0</v>
       </c>
       <c r="BX36">
-        <v>-3.675402674402525e-16</v>
+        <v>0</v>
       </c>
       <c r="BY36">
         <v>0</v>
@@ -9859,13 +9859,13 @@
         <v>0</v>
       </c>
       <c r="BN37">
+        <v>0</v>
+      </c>
+      <c r="BO37">
+        <v>0</v>
+      </c>
+      <c r="BP37">
         <v>12</v>
-      </c>
-      <c r="BO37">
-        <v>0</v>
-      </c>
-      <c r="BP37">
-        <v>0</v>
       </c>
       <c r="BQ37">
         <v>0</v>
@@ -9939,142 +9939,142 @@
         <v>0</v>
       </c>
       <c r="I38">
+        <v>0</v>
+      </c>
+      <c r="J38">
+        <v>0</v>
+      </c>
+      <c r="K38">
+        <v>0</v>
+      </c>
+      <c r="L38">
+        <v>0</v>
+      </c>
+      <c r="M38">
+        <v>0</v>
+      </c>
+      <c r="N38">
+        <v>0</v>
+      </c>
+      <c r="O38">
+        <v>0</v>
+      </c>
+      <c r="P38">
+        <v>0</v>
+      </c>
+      <c r="Q38">
+        <v>0</v>
+      </c>
+      <c r="R38">
+        <v>0</v>
+      </c>
+      <c r="S38">
+        <v>0</v>
+      </c>
+      <c r="T38">
+        <v>0</v>
+      </c>
+      <c r="U38">
+        <v>0</v>
+      </c>
+      <c r="V38">
+        <v>0</v>
+      </c>
+      <c r="W38">
+        <v>0</v>
+      </c>
+      <c r="X38">
+        <v>0</v>
+      </c>
+      <c r="Y38">
+        <v>0</v>
+      </c>
+      <c r="Z38">
+        <v>0</v>
+      </c>
+      <c r="AA38">
+        <v>0</v>
+      </c>
+      <c r="AB38">
+        <v>0</v>
+      </c>
+      <c r="AC38">
+        <v>0</v>
+      </c>
+      <c r="AD38">
+        <v>0</v>
+      </c>
+      <c r="AE38">
+        <v>0</v>
+      </c>
+      <c r="AF38">
+        <v>0</v>
+      </c>
+      <c r="AG38">
+        <v>0</v>
+      </c>
+      <c r="AH38">
+        <v>0</v>
+      </c>
+      <c r="AI38">
+        <v>0</v>
+      </c>
+      <c r="AJ38">
+        <v>0</v>
+      </c>
+      <c r="AK38">
+        <v>0</v>
+      </c>
+      <c r="AL38">
+        <v>0</v>
+      </c>
+      <c r="AM38">
+        <v>0</v>
+      </c>
+      <c r="AN38">
+        <v>0</v>
+      </c>
+      <c r="AO38">
+        <v>0</v>
+      </c>
+      <c r="AP38">
+        <v>0</v>
+      </c>
+      <c r="AQ38">
+        <v>0</v>
+      </c>
+      <c r="AR38">
+        <v>0</v>
+      </c>
+      <c r="AS38">
+        <v>0</v>
+      </c>
+      <c r="AT38">
+        <v>14</v>
+      </c>
+      <c r="AU38">
+        <v>0</v>
+      </c>
+      <c r="AV38">
+        <v>0</v>
+      </c>
+      <c r="AW38">
+        <v>0</v>
+      </c>
+      <c r="AX38">
+        <v>0</v>
+      </c>
+      <c r="AY38">
+        <v>0</v>
+      </c>
+      <c r="AZ38">
+        <v>0</v>
+      </c>
+      <c r="BA38">
+        <v>0</v>
+      </c>
+      <c r="BB38">
         <v>13.61</v>
-      </c>
-      <c r="J38">
-        <v>0</v>
-      </c>
-      <c r="K38">
-        <v>0</v>
-      </c>
-      <c r="L38">
-        <v>0</v>
-      </c>
-      <c r="M38">
-        <v>0</v>
-      </c>
-      <c r="N38">
-        <v>0</v>
-      </c>
-      <c r="O38">
-        <v>0</v>
-      </c>
-      <c r="P38">
-        <v>0</v>
-      </c>
-      <c r="Q38">
-        <v>0</v>
-      </c>
-      <c r="R38">
-        <v>0</v>
-      </c>
-      <c r="S38">
-        <v>0</v>
-      </c>
-      <c r="T38">
-        <v>0</v>
-      </c>
-      <c r="U38">
-        <v>0</v>
-      </c>
-      <c r="V38">
-        <v>0</v>
-      </c>
-      <c r="W38">
-        <v>0</v>
-      </c>
-      <c r="X38">
-        <v>0</v>
-      </c>
-      <c r="Y38">
-        <v>0</v>
-      </c>
-      <c r="Z38">
-        <v>0</v>
-      </c>
-      <c r="AA38">
-        <v>0</v>
-      </c>
-      <c r="AB38">
-        <v>0</v>
-      </c>
-      <c r="AC38">
-        <v>0</v>
-      </c>
-      <c r="AD38">
-        <v>0</v>
-      </c>
-      <c r="AE38">
-        <v>0</v>
-      </c>
-      <c r="AF38">
-        <v>0</v>
-      </c>
-      <c r="AG38">
-        <v>0</v>
-      </c>
-      <c r="AH38">
-        <v>0</v>
-      </c>
-      <c r="AI38">
-        <v>0</v>
-      </c>
-      <c r="AJ38">
-        <v>0</v>
-      </c>
-      <c r="AK38">
-        <v>0</v>
-      </c>
-      <c r="AL38">
-        <v>0</v>
-      </c>
-      <c r="AM38">
-        <v>0</v>
-      </c>
-      <c r="AN38">
-        <v>0</v>
-      </c>
-      <c r="AO38">
-        <v>0</v>
-      </c>
-      <c r="AP38">
-        <v>0</v>
-      </c>
-      <c r="AQ38">
-        <v>0</v>
-      </c>
-      <c r="AR38">
-        <v>0</v>
-      </c>
-      <c r="AS38">
-        <v>0</v>
-      </c>
-      <c r="AT38">
-        <v>0</v>
-      </c>
-      <c r="AU38">
-        <v>0</v>
-      </c>
-      <c r="AV38">
-        <v>0</v>
-      </c>
-      <c r="AW38">
-        <v>0</v>
-      </c>
-      <c r="AX38">
-        <v>0</v>
-      </c>
-      <c r="AY38">
-        <v>0</v>
-      </c>
-      <c r="AZ38">
-        <v>0</v>
-      </c>
-      <c r="BA38">
-        <v>0</v>
-      </c>
-      <c r="BB38">
-        <v>0</v>
       </c>
       <c r="BC38">
         <v>0</v>
@@ -10193,7 +10193,7 @@
         <v>0</v>
       </c>
       <c r="J39">
-        <v>0</v>
+        <v>13.61</v>
       </c>
       <c r="K39">
         <v>0</v>
@@ -10244,7 +10244,7 @@
         <v>0</v>
       </c>
       <c r="AA39">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="AB39">
         <v>0</v>
@@ -10426,7 +10426,7 @@
         <v>0</v>
       </c>
       <c r="D40">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="E40">
         <v>0</v>
@@ -10480,7 +10480,7 @@
         <v>0</v>
       </c>
       <c r="V40">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="W40">
         <v>0</v>
@@ -10492,7 +10492,7 @@
         <v>0</v>
       </c>
       <c r="Z40">
-        <v>13.60999999999999</v>
+        <v>0</v>
       </c>
       <c r="AA40">
         <v>0</v>
@@ -10585,7 +10585,7 @@
         <v>0</v>
       </c>
       <c r="BE40">
-        <v>0.08666666666666352</v>
+        <v>0</v>
       </c>
       <c r="BF40">
         <v>0</v>
@@ -10624,7 +10624,7 @@
         <v>0</v>
       </c>
       <c r="BR40">
-        <v>-2.684099230014493e-29</v>
+        <v>0</v>
       </c>
       <c r="BS40">
         <v>0</v>
@@ -10648,7 +10648,7 @@
         <v>0</v>
       </c>
       <c r="BZ40">
-        <v>-2.86159293368922e-30</v>
+        <v>0</v>
       </c>
       <c r="CA40">
         <v>0</v>
@@ -10657,7 +10657,7 @@
         <v>0</v>
       </c>
       <c r="CC40">
-        <v>9.138921028683845e-15</v>
+        <v>0</v>
       </c>
       <c r="CD40">
         <v>0</v>
@@ -10809,7 +10809,7 @@
         <v>0</v>
       </c>
       <c r="AV41">
-        <v>0</v>
+        <v>41.14</v>
       </c>
       <c r="AW41">
         <v>0</v>
@@ -10860,7 +10860,7 @@
         <v>0</v>
       </c>
       <c r="BM41">
-        <v>41.14</v>
+        <v>0</v>
       </c>
       <c r="BN41">
         <v>0</v>
@@ -11553,7 +11553,7 @@
         <v>0</v>
       </c>
       <c r="AS44">
-        <v>-3.809292343255759e-16</v>
+        <v>0</v>
       </c>
       <c r="AT44">
         <v>0</v>
@@ -11565,7 +11565,7 @@
         <v>0</v>
       </c>
       <c r="AW44">
-        <v>14.51</v>
+        <v>0</v>
       </c>
       <c r="AX44">
         <v>0</v>
@@ -11655,7 +11655,7 @@
         <v>0</v>
       </c>
       <c r="CA44">
-        <v>0</v>
+        <v>14.37</v>
       </c>
       <c r="CB44">
         <v>0</v>
@@ -11684,7 +11684,7 @@
         <v>0</v>
       </c>
       <c r="E45">
-        <v>0.08982380952380299</v>
+        <v>0</v>
       </c>
       <c r="F45">
         <v>0</v>
@@ -11906,10 +11906,10 @@
         <v>0</v>
       </c>
       <c r="CA45">
-        <v>14.28104285714286</v>
+        <v>0</v>
       </c>
       <c r="CB45">
-        <v>0</v>
+        <v>14.37</v>
       </c>
       <c r="CC45">
         <v>0</v>
@@ -12333,7 +12333,7 @@
         <v>0</v>
       </c>
       <c r="BB47">
-        <v>-1.511013536514838e-15</v>
+        <v>0</v>
       </c>
       <c r="BC47">
         <v>0</v>
@@ -12387,10 +12387,10 @@
         <v>0</v>
       </c>
       <c r="BT47">
+        <v>0</v>
+      </c>
+      <c r="BU47">
         <v>13.61</v>
-      </c>
-      <c r="BU47">
-        <v>0</v>
       </c>
       <c r="BV47">
         <v>0</v>
@@ -13053,7 +13053,7 @@
         <v>0</v>
       </c>
       <c r="AQ50">
-        <v>0</v>
+        <v>13.61</v>
       </c>
       <c r="AR50">
         <v>0</v>
@@ -13083,7 +13083,7 @@
         <v>0</v>
       </c>
       <c r="BA50">
-        <v>13.61</v>
+        <v>0</v>
       </c>
       <c r="BB50">
         <v>0</v>
@@ -13208,7 +13208,7 @@
         <v>0</v>
       </c>
       <c r="K51">
-        <v>0</v>
+        <v>39</v>
       </c>
       <c r="L51">
         <v>0</v>
@@ -13226,7 +13226,7 @@
         <v>0</v>
       </c>
       <c r="Q51">
-        <v>-7.723451507975741e-16</v>
+        <v>0</v>
       </c>
       <c r="R51">
         <v>0</v>
@@ -13355,7 +13355,7 @@
         <v>0</v>
       </c>
       <c r="BH51">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="BI51">
         <v>0</v>
@@ -13516,7 +13516,7 @@
         <v>0</v>
       </c>
       <c r="AD52">
-        <v>0</v>
+        <v>13.61</v>
       </c>
       <c r="AE52">
         <v>0</v>
@@ -13546,7 +13546,7 @@
         <v>0</v>
       </c>
       <c r="AN52">
-        <v>39</v>
+        <v>0</v>
       </c>
       <c r="AO52">
         <v>0</v>
@@ -13842,13 +13842,13 @@
         <v>0</v>
       </c>
       <c r="BC53">
-        <v>0.08666666666666274</v>
+        <v>0</v>
       </c>
       <c r="BD53">
         <v>0</v>
       </c>
       <c r="BE53">
-        <v>13.91333333333334</v>
+        <v>14</v>
       </c>
       <c r="BF53">
         <v>0</v>
@@ -13857,7 +13857,7 @@
         <v>0</v>
       </c>
       <c r="BH53">
-        <v>-9.663546088957395e-30</v>
+        <v>0</v>
       </c>
       <c r="BI53">
         <v>0</v>
@@ -14066,7 +14066,7 @@
         <v>0</v>
       </c>
       <c r="AT54">
-        <v>0.08666666666666037</v>
+        <v>0</v>
       </c>
       <c r="AU54">
         <v>0</v>
@@ -14150,13 +14150,13 @@
         <v>0</v>
       </c>
       <c r="BV54">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="BW54">
         <v>0</v>
       </c>
       <c r="BX54">
-        <v>13.91333333333334</v>
+        <v>0</v>
       </c>
       <c r="BY54">
         <v>0</v>
@@ -14287,7 +14287,7 @@
         <v>0</v>
       </c>
       <c r="AJ55">
-        <v>0</v>
+        <v>41.14</v>
       </c>
       <c r="AK55">
         <v>0</v>
@@ -14323,7 +14323,7 @@
         <v>0</v>
       </c>
       <c r="AV55">
-        <v>41.14</v>
+        <v>0</v>
       </c>
       <c r="AW55">
         <v>0</v>
@@ -14514,7 +14514,7 @@
         <v>0</v>
       </c>
       <c r="AB56">
-        <v>0</v>
+        <v>38.88</v>
       </c>
       <c r="AC56">
         <v>0</v>
@@ -14532,7 +14532,7 @@
         <v>0</v>
       </c>
       <c r="AH56">
-        <v>0.08666666666665959</v>
+        <v>0</v>
       </c>
       <c r="AI56">
         <v>0</v>
@@ -14568,7 +14568,7 @@
         <v>0</v>
       </c>
       <c r="AT56">
-        <v>13.91333333333334</v>
+        <v>0</v>
       </c>
       <c r="AU56">
         <v>0</v>
@@ -14750,7 +14750,7 @@
         <v>0</v>
       </c>
       <c r="W57">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="X57">
         <v>0</v>
@@ -14873,7 +14873,7 @@
         <v>0</v>
       </c>
       <c r="BL57">
-        <v>38.88</v>
+        <v>0</v>
       </c>
       <c r="BM57">
         <v>0</v>
@@ -14980,13 +14980,13 @@
         <v>0</v>
       </c>
       <c r="P58">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="Q58">
         <v>0</v>
       </c>
       <c r="R58">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="S58">
         <v>0</v>
@@ -15201,7 +15201,7 @@
         <v>0</v>
       </c>
       <c r="F59">
-        <v>0</v>
+        <v>1.873763049482164e-12</v>
       </c>
       <c r="G59">
         <v>0</v>
@@ -15279,7 +15279,7 @@
         <v>0</v>
       </c>
       <c r="AF59">
-        <v>39</v>
+        <v>0</v>
       </c>
       <c r="AG59">
         <v>0</v>
@@ -15309,7 +15309,7 @@
         <v>0</v>
       </c>
       <c r="AP59">
-        <v>0</v>
+        <v>41</v>
       </c>
       <c r="AQ59">
         <v>0</v>
@@ -15530,7 +15530,7 @@
         <v>0</v>
       </c>
       <c r="AF60">
-        <v>0</v>
+        <v>39</v>
       </c>
       <c r="AG60">
         <v>0</v>
@@ -15548,7 +15548,7 @@
         <v>0</v>
       </c>
       <c r="AL60">
-        <v>41</v>
+        <v>0</v>
       </c>
       <c r="AM60">
         <v>0</v>
@@ -15787,7 +15787,7 @@
         <v>0</v>
       </c>
       <c r="AH61">
-        <v>13.91333333333334</v>
+        <v>14</v>
       </c>
       <c r="AI61">
         <v>0</v>
@@ -15925,7 +15925,7 @@
         <v>0</v>
       </c>
       <c r="CB61">
-        <v>0.08895714285713639</v>
+        <v>0</v>
       </c>
       <c r="CC61">
         <v>0</v>
@@ -16050,7 +16050,7 @@
         <v>0</v>
       </c>
       <c r="AL62">
-        <v>0</v>
+        <v>41</v>
       </c>
       <c r="AM62">
         <v>0</v>
@@ -16059,7 +16059,7 @@
         <v>0</v>
       </c>
       <c r="AO62">
-        <v>39</v>
+        <v>0</v>
       </c>
       <c r="AP62">
         <v>0</v>
@@ -16205,7 +16205,7 @@
         <v>0</v>
       </c>
       <c r="F63">
-        <v>41</v>
+        <v>0</v>
       </c>
       <c r="G63">
         <v>0</v>
@@ -16352,7 +16352,7 @@
         <v>0</v>
       </c>
       <c r="BC63">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="BD63">
         <v>0</v>
@@ -16486,7 +16486,7 @@
         <v>0</v>
       </c>
       <c r="P64">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="Q64">
         <v>0</v>
@@ -16561,7 +16561,7 @@
         <v>0</v>
       </c>
       <c r="AO64">
-        <v>0</v>
+        <v>39</v>
       </c>
       <c r="AP64">
         <v>0</v>
@@ -16767,7 +16767,7 @@
         <v>0</v>
       </c>
       <c r="Z65">
-        <v>0</v>
+        <v>13.61</v>
       </c>
       <c r="AA65">
         <v>0</v>
@@ -16908,7 +16908,7 @@
         <v>0</v>
       </c>
       <c r="BU65">
-        <v>13.61</v>
+        <v>0</v>
       </c>
       <c r="BV65">
         <v>0</v>
@@ -16985,7 +16985,7 @@
         <v>0</v>
       </c>
       <c r="O66">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="P66">
         <v>0</v>
@@ -16997,7 +16997,7 @@
         <v>0</v>
       </c>
       <c r="S66">
-        <v>0</v>
+        <v>13.61</v>
       </c>
       <c r="T66">
         <v>0</v>
@@ -17245,7 +17245,7 @@
         <v>0</v>
       </c>
       <c r="R67">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="S67">
         <v>0</v>
@@ -17368,7 +17368,7 @@
         <v>0</v>
       </c>
       <c r="BG67">
-        <v>13.61</v>
+        <v>0</v>
       </c>
       <c r="BH67">
         <v>0</v>
@@ -17472,7 +17472,7 @@
         <v>0</v>
       </c>
       <c r="J68">
-        <v>13.61</v>
+        <v>0</v>
       </c>
       <c r="K68">
         <v>0</v>
@@ -17631,7 +17631,7 @@
         <v>0</v>
       </c>
       <c r="BK68">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="BL68">
         <v>0</v>
@@ -17685,7 +17685,7 @@
         <v>0</v>
       </c>
       <c r="CC68">
-        <v>-1.554312234475274e-15</v>
+        <v>0</v>
       </c>
       <c r="CD68">
         <v>0</v>
@@ -17699,7 +17699,7 @@
         <v>67</v>
       </c>
       <c r="B69">
-        <v>0</v>
+        <v>14.51</v>
       </c>
       <c r="C69">
         <v>0</v>
@@ -17810,7 +17810,7 @@
         <v>0</v>
       </c>
       <c r="AM69">
-        <v>-2.289274346951376e-29</v>
+        <v>0</v>
       </c>
       <c r="AN69">
         <v>0</v>
@@ -17927,7 +17927,7 @@
         <v>0</v>
       </c>
       <c r="BZ69">
-        <v>14.51</v>
+        <v>0</v>
       </c>
       <c r="CA69">
         <v>0</v>
@@ -17950,137 +17950,137 @@
         <v>68</v>
       </c>
       <c r="B70">
+        <v>0</v>
+      </c>
+      <c r="C70">
+        <v>0</v>
+      </c>
+      <c r="D70">
+        <v>0</v>
+      </c>
+      <c r="E70">
+        <v>0</v>
+      </c>
+      <c r="F70">
+        <v>0</v>
+      </c>
+      <c r="G70">
+        <v>0</v>
+      </c>
+      <c r="H70">
+        <v>0</v>
+      </c>
+      <c r="I70">
+        <v>0</v>
+      </c>
+      <c r="J70">
+        <v>0</v>
+      </c>
+      <c r="K70">
+        <v>0</v>
+      </c>
+      <c r="L70">
+        <v>0</v>
+      </c>
+      <c r="M70">
+        <v>0</v>
+      </c>
+      <c r="N70">
+        <v>0</v>
+      </c>
+      <c r="O70">
+        <v>0</v>
+      </c>
+      <c r="P70">
+        <v>0</v>
+      </c>
+      <c r="Q70">
+        <v>0</v>
+      </c>
+      <c r="R70">
+        <v>0</v>
+      </c>
+      <c r="S70">
+        <v>0</v>
+      </c>
+      <c r="T70">
+        <v>0</v>
+      </c>
+      <c r="U70">
+        <v>0</v>
+      </c>
+      <c r="V70">
+        <v>0</v>
+      </c>
+      <c r="W70">
+        <v>0</v>
+      </c>
+      <c r="X70">
+        <v>0</v>
+      </c>
+      <c r="Y70">
+        <v>0</v>
+      </c>
+      <c r="Z70">
+        <v>0</v>
+      </c>
+      <c r="AA70">
+        <v>0</v>
+      </c>
+      <c r="AB70">
+        <v>0</v>
+      </c>
+      <c r="AC70">
+        <v>0</v>
+      </c>
+      <c r="AD70">
+        <v>0</v>
+      </c>
+      <c r="AE70">
+        <v>0</v>
+      </c>
+      <c r="AF70">
+        <v>0</v>
+      </c>
+      <c r="AG70">
+        <v>0</v>
+      </c>
+      <c r="AH70">
+        <v>0</v>
+      </c>
+      <c r="AI70">
+        <v>0</v>
+      </c>
+      <c r="AJ70">
+        <v>0</v>
+      </c>
+      <c r="AK70">
+        <v>0</v>
+      </c>
+      <c r="AL70">
+        <v>0</v>
+      </c>
+      <c r="AM70">
+        <v>0</v>
+      </c>
+      <c r="AN70">
+        <v>0</v>
+      </c>
+      <c r="AO70">
+        <v>0</v>
+      </c>
+      <c r="AP70">
+        <v>0</v>
+      </c>
+      <c r="AQ70">
+        <v>0</v>
+      </c>
+      <c r="AR70">
+        <v>0</v>
+      </c>
+      <c r="AS70">
         <v>14.51</v>
       </c>
-      <c r="C70">
-        <v>0</v>
-      </c>
-      <c r="D70">
-        <v>0</v>
-      </c>
-      <c r="E70">
-        <v>0</v>
-      </c>
-      <c r="F70">
-        <v>0</v>
-      </c>
-      <c r="G70">
-        <v>0</v>
-      </c>
-      <c r="H70">
-        <v>0</v>
-      </c>
-      <c r="I70">
-        <v>0</v>
-      </c>
-      <c r="J70">
-        <v>0</v>
-      </c>
-      <c r="K70">
-        <v>0</v>
-      </c>
-      <c r="L70">
-        <v>0</v>
-      </c>
-      <c r="M70">
-        <v>0</v>
-      </c>
-      <c r="N70">
-        <v>0</v>
-      </c>
-      <c r="O70">
-        <v>0</v>
-      </c>
-      <c r="P70">
-        <v>0</v>
-      </c>
-      <c r="Q70">
-        <v>0</v>
-      </c>
-      <c r="R70">
-        <v>0</v>
-      </c>
-      <c r="S70">
-        <v>0</v>
-      </c>
-      <c r="T70">
-        <v>0</v>
-      </c>
-      <c r="U70">
-        <v>0</v>
-      </c>
-      <c r="V70">
-        <v>0</v>
-      </c>
-      <c r="W70">
-        <v>0</v>
-      </c>
-      <c r="X70">
-        <v>0</v>
-      </c>
-      <c r="Y70">
-        <v>0</v>
-      </c>
-      <c r="Z70">
-        <v>0</v>
-      </c>
-      <c r="AA70">
-        <v>0</v>
-      </c>
-      <c r="AB70">
-        <v>0</v>
-      </c>
-      <c r="AC70">
-        <v>0</v>
-      </c>
-      <c r="AD70">
-        <v>0</v>
-      </c>
-      <c r="AE70">
-        <v>0</v>
-      </c>
-      <c r="AF70">
-        <v>0</v>
-      </c>
-      <c r="AG70">
-        <v>0</v>
-      </c>
-      <c r="AH70">
-        <v>0</v>
-      </c>
-      <c r="AI70">
-        <v>0</v>
-      </c>
-      <c r="AJ70">
-        <v>0</v>
-      </c>
-      <c r="AK70">
-        <v>0</v>
-      </c>
-      <c r="AL70">
-        <v>0</v>
-      </c>
-      <c r="AM70">
-        <v>14.4201761904762</v>
-      </c>
-      <c r="AN70">
-        <v>0</v>
-      </c>
-      <c r="AO70">
-        <v>0</v>
-      </c>
-      <c r="AP70">
-        <v>0</v>
-      </c>
-      <c r="AQ70">
-        <v>0</v>
-      </c>
-      <c r="AR70">
-        <v>0</v>
-      </c>
-      <c r="AS70">
-        <v>0</v>
-      </c>
       <c r="AT70">
         <v>0</v>
       </c>
@@ -18091,7 +18091,7 @@
         <v>0</v>
       </c>
       <c r="AW70">
-        <v>-3.809292343255759e-16</v>
+        <v>0</v>
       </c>
       <c r="AX70">
         <v>0</v>
@@ -18178,7 +18178,7 @@
         <v>0</v>
       </c>
       <c r="BZ70">
-        <v>0</v>
+        <v>14.51</v>
       </c>
       <c r="CA70">
         <v>0</v>
@@ -18222,7 +18222,7 @@
         <v>0</v>
       </c>
       <c r="I71">
-        <v>0</v>
+        <v>13.61</v>
       </c>
       <c r="J71">
         <v>0</v>
@@ -18357,7 +18357,7 @@
         <v>0</v>
       </c>
       <c r="BB71">
-        <v>13.61</v>
+        <v>0</v>
       </c>
       <c r="BC71">
         <v>0</v>
@@ -18414,7 +18414,7 @@
         <v>0</v>
       </c>
       <c r="BU71">
-        <v>-1.511013536514881e-15</v>
+        <v>0</v>
       </c>
       <c r="BV71">
         <v>0</v>
@@ -18458,7 +18458,7 @@
         <v>0</v>
       </c>
       <c r="D72">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="E72">
         <v>0</v>
@@ -18611,10 +18611,10 @@
         <v>0</v>
       </c>
       <c r="BC72">
-        <v>13.91333333333334</v>
+        <v>0</v>
       </c>
       <c r="BD72">
-        <v>1.104405267309417e-29</v>
+        <v>0</v>
       </c>
       <c r="BE72">
         <v>0</v>
@@ -18674,7 +18674,7 @@
         <v>0</v>
       </c>
       <c r="BX72">
-        <v>0.08666666666666274</v>
+        <v>0</v>
       </c>
       <c r="BY72">
         <v>0</v>
@@ -18880,7 +18880,7 @@
         <v>0</v>
       </c>
       <c r="BI73">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="BJ73">
         <v>0</v>
@@ -18904,7 +18904,7 @@
         <v>0</v>
       </c>
       <c r="BQ73">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="BR73">
         <v>0</v>
@@ -18960,7 +18960,7 @@
         <v>0</v>
       </c>
       <c r="D74">
-        <v>-1.544690301595136e-15</v>
+        <v>0</v>
       </c>
       <c r="E74">
         <v>0</v>
@@ -18999,7 +18999,7 @@
         <v>0</v>
       </c>
       <c r="Q74">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="R74">
         <v>0</v>
@@ -19158,7 +19158,7 @@
         <v>0</v>
       </c>
       <c r="BR74">
-        <v>0</v>
+        <v>13.61</v>
       </c>
       <c r="BS74">
         <v>0</v>
@@ -19256,7 +19256,7 @@
         <v>0</v>
       </c>
       <c r="S75">
-        <v>13.61</v>
+        <v>0</v>
       </c>
       <c r="T75">
         <v>0</v>
@@ -19331,7 +19331,7 @@
         <v>0</v>
       </c>
       <c r="AR75">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="AS75">
         <v>0</v>
@@ -19618,7 +19618,7 @@
         <v>0</v>
       </c>
       <c r="BD76">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="BE76">
         <v>0</v>
@@ -19696,7 +19696,7 @@
         <v>0</v>
       </c>
       <c r="CD76">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="CE76">
         <v>0</v>
@@ -19761,7 +19761,7 @@
         <v>0</v>
       </c>
       <c r="T77">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="U77">
         <v>0</v>
@@ -19923,7 +19923,7 @@
         <v>0</v>
       </c>
       <c r="BV77">
-        <v>7.584608794208568e-15</v>
+        <v>0</v>
       </c>
       <c r="BW77">
         <v>0</v>
@@ -19944,7 +19944,7 @@
         <v>0</v>
       </c>
       <c r="CC77">
-        <v>13.99999999999999</v>
+        <v>0</v>
       </c>
       <c r="CD77">
         <v>0</v>
@@ -20126,7 +20126,7 @@
         <v>0</v>
       </c>
       <c r="BF78">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="BG78">
         <v>0</v>
@@ -20171,7 +20171,7 @@
         <v>0</v>
       </c>
       <c r="BU78">
-        <v>1.511013536514822e-15</v>
+        <v>0</v>
       </c>
       <c r="BV78">
         <v>0</v>
@@ -20195,7 +20195,7 @@
         <v>0</v>
       </c>
       <c r="CC78">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="CD78">
         <v>0</v>
@@ -20281,7 +20281,7 @@
         <v>0</v>
       </c>
       <c r="Z79">
-        <v>7.373323263512757e-15</v>
+        <v>0</v>
       </c>
       <c r="AA79">
         <v>0</v>
@@ -20410,7 +20410,7 @@
         <v>0</v>
       </c>
       <c r="BQ79">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="BR79">
         <v>0</v>
@@ -20425,7 +20425,7 @@
         <v>0</v>
       </c>
       <c r="BV79">
-        <v>13.99999999999999</v>
+        <v>0</v>
       </c>
       <c r="BW79">
         <v>0</v>
